--- a/Data_clean/MCAS/Estados_US/Edos_USA_2014/RHODE_ISLAND_2014.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2014/RHODE_ISLAND_2014.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Rayón</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Reforma</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -507,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -520,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -533,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -546,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Milpa Alta</t>
@@ -559,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -572,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -585,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -598,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -611,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -642,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -655,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -668,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -681,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Nicolás Romero</t>
@@ -694,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -707,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Zumpango</t>
@@ -720,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -751,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -764,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -777,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>León</t>
@@ -790,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -803,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -860,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Buenavista De Cuéllar</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -886,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Ixcateopan De Cuauhtémoc</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -912,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -925,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Olinalá</t>
@@ -938,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -951,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -964,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -977,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -990,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -1003,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -1016,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1047,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Alfajayucan</t>
@@ -1060,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Cardonal</t>
@@ -1073,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Chapantongo</t>
@@ -1086,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Huasca De Ocampo</t>
@@ -1099,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1112,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Nopala De Villagrán</t>
@@ -1125,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Progreso De Obregón</t>
@@ -1138,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Tepetitlán</t>
@@ -1151,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -1164,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1195,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1226,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Sahuayo</t>
@@ -1239,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1252,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -1265,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1278,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1309,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -1322,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Zacatepec De Hidalgo</t>
@@ -1335,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1366,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1397,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1428,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>San Miguel Piedras</t>
@@ -1441,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Santa Cruz Itundujia</t>
@@ -1454,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Santa Cruz Zenzontepec</t>
@@ -1467,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Santa María Tonameca</t>
@@ -1480,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -1493,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1524,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -1537,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Chinantla</t>
@@ -1550,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Cuayuca De Andrade</t>
@@ -1563,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -1576,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -1589,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -1602,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1615,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Santa Isabel Cholula</t>
@@ -1628,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Tecomatlán</t>
@@ -1641,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Zacapala</t>
@@ -1654,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1685,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1716,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -1729,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1760,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1791,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Comalcalco</t>
@@ -1804,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Cunduacán</t>
@@ -1817,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1848,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -1861,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -1874,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1905,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Panotla</t>
@@ -1918,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1949,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -1962,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Comapa</t>
@@ -1975,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Gutiérrez Zamora</t>
@@ -1988,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -2001,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -2014,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -2027,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Puente Nacional</t>
@@ -2040,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -2053,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -2066,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -2079,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Zentla</t>
@@ -2092,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2123,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Total</t>
